--- a/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBC2C11-A932-4FDC-A6D3-3049CAB0DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A81176-8016-48AA-8967-67917A2C0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED8CFFD-4618-4599-99BF-E5AB86EBCD1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7827581-F442-4BE4-BBFC-DAB5B37CE55A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="521">
-  <si>
-    <t>Población según la frecuencia de consumición de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="533">
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,1462 +80,1504 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2015 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pan, cereales en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -1544,64 +1586,58 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>79,78%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF5ABD-FF90-4DEA-B97F-186C59A0D5BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C212D1-1A91-405E-AC51-B732E45926B8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2194,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2203,13 +2239,13 @@
         <v>13036</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -2221,16 +2257,16 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>24</v>
@@ -2239,13 +2275,13 @@
         <v>22693</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -2254,13 +2290,13 @@
         <v>48201</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -2269,19 +2305,19 @@
         <v>70894</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>60</v>
@@ -2290,13 +2326,13 @@
         <v>56594</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2305,13 +2341,13 @@
         <v>81820</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -2320,19 +2356,19 @@
         <v>138415</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>945</v>
@@ -2341,13 +2377,13 @@
         <v>943681</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>1134</v>
@@ -2356,13 +2392,13 @@
         <v>1156652</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>2079</v>
@@ -2371,13 +2407,13 @@
         <v>2100333</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2428,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2407,13 +2443,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2422,18 +2458,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2445,13 +2481,13 @@
         <v>13130</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2460,13 +2496,13 @@
         <v>19311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2475,13 +2511,13 @@
         <v>32442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2532,13 @@
         <v>12114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2511,13 +2547,13 @@
         <v>27836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -2526,19 +2562,19 @@
         <v>39950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>38</v>
@@ -2547,13 +2583,13 @@
         <v>43044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>60</v>
@@ -2562,13 +2598,13 @@
         <v>59582</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2577,19 +2613,19 @@
         <v>102626</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>97</v>
@@ -2598,13 +2634,13 @@
         <v>96231</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2613,13 +2649,13 @@
         <v>110266</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -2628,19 +2664,19 @@
         <v>206497</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1489</v>
@@ -2649,13 +2685,13 @@
         <v>1528894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>1341</v>
@@ -2664,13 +2700,13 @@
         <v>1369617</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>2830</v>
@@ -2679,13 +2715,13 @@
         <v>2898512</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2736,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2715,13 +2751,13 @@
         <v>1586613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -2730,18 +2766,18 @@
         <v>3280026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2789,13 @@
         <v>5778</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2768,13 +2804,13 @@
         <v>4063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2783,13 +2819,13 @@
         <v>9840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2840,10 @@
         <v>3761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>111</v>
@@ -2825,7 +2861,7 @@
         <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2834,19 +2870,19 @@
         <v>5768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
@@ -2855,13 +2891,13 @@
         <v>15664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2870,13 +2906,13 @@
         <v>20112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -2885,19 +2921,19 @@
         <v>35777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -2906,13 +2942,13 @@
         <v>41687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2921,13 +2957,13 @@
         <v>39907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -2936,19 +2972,19 @@
         <v>81594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>463</v>
@@ -2957,13 +2993,13 @@
         <v>484518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>388</v>
@@ -2972,13 +3008,13 @@
         <v>410323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -2987,13 +3023,13 @@
         <v>894841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3044,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3023,13 +3059,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3038,13 +3074,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3097,13 @@
         <v>22056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3076,13 +3112,13 @@
         <v>38778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -3091,13 +3127,13 @@
         <v>60834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3148,13 @@
         <v>21481</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -3127,13 +3163,13 @@
         <v>42879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3142,19 +3178,19 @@
         <v>64360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>77</v>
@@ -3163,13 +3199,13 @@
         <v>81401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -3178,13 +3214,13 @@
         <v>127895</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>205</v>
@@ -3193,19 +3229,19 @@
         <v>209296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>198</v>
@@ -3214,13 +3250,13 @@
         <v>194512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3229,13 +3265,13 @@
         <v>231994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -3244,19 +3280,19 @@
         <v>426506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2897</v>
@@ -3265,13 +3301,13 @@
         <v>2957094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>2863</v>
@@ -3280,13 +3316,13 @@
         <v>2936592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>5760</v>
@@ -3295,13 +3331,13 @@
         <v>5893685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3352,13 @@
         <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3331,13 +3367,13 @@
         <v>3378138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3346,18 +3382,18 @@
         <v>6654681</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441423F5-15FC-41B8-9D69-466701B8C765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF8E96-97F5-4ED9-8AA2-12B0E35C793D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3393,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3500,13 +3536,13 @@
         <v>2904</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3515,13 +3551,13 @@
         <v>11352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3530,13 +3566,13 @@
         <v>14256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3587,13 @@
         <v>7025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3566,13 +3602,13 @@
         <v>15207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3581,19 +3617,19 @@
         <v>22232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -3602,13 +3638,13 @@
         <v>22170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3617,13 +3653,13 @@
         <v>36549</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3632,10 +3668,10 @@
         <v>58719</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>198</v>
@@ -3644,7 +3680,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
@@ -3656,7 +3692,7 @@
         <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>200</v>
@@ -3695,7 +3731,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>851</v>
@@ -3755,13 +3791,13 @@
         <v>973474</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -3770,13 +3806,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -3785,18 +3821,18 @@
         <v>2311270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3808,13 +3844,13 @@
         <v>13216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3838,13 +3874,13 @@
         <v>30514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3895,13 @@
         <v>3289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3874,13 +3910,13 @@
         <v>10833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3889,19 +3925,19 @@
         <v>14122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>31</v>
@@ -3910,13 +3946,13 @@
         <v>33738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -3925,13 +3961,13 @@
         <v>64630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -3940,19 +3976,19 @@
         <v>98368</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>69</v>
@@ -3961,13 +3997,13 @@
         <v>71700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -3976,13 +4012,13 @@
         <v>84317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3991,19 +4027,19 @@
         <v>156017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1741</v>
@@ -4015,10 +4051,10 @@
         <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>1469</v>
@@ -4027,13 +4063,13 @@
         <v>1579733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>3210</v>
@@ -4042,13 +4078,13 @@
         <v>3421746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4099,13 @@
         <v>1963957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
@@ -4078,13 +4114,13 @@
         <v>1756811</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3490</v>
@@ -4093,18 +4129,18 @@
         <v>3720768</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4152,13 @@
         <v>4794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4131,13 +4167,13 @@
         <v>3963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4146,13 +4182,13 @@
         <v>8757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,7 +4209,7 @@
         <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4182,13 +4218,13 @@
         <v>7461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4197,19 +4233,19 @@
         <v>9487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -4218,13 +4254,13 @@
         <v>10629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4233,13 +4269,13 @@
         <v>19150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -4248,19 +4284,19 @@
         <v>29780</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>24</v>
@@ -4269,13 +4305,13 @@
         <v>28967</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4284,13 +4320,13 @@
         <v>33833</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4299,10 +4335,10 @@
         <v>62799</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>273</v>
@@ -4311,7 +4347,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>398</v>
@@ -4371,13 +4407,13 @@
         <v>480152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4386,13 +4422,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4401,13 +4437,13 @@
         <v>938783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4460,13 @@
         <v>20914</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4439,13 +4475,13 @@
         <v>32612</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4454,13 +4490,13 @@
         <v>53527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4511,13 @@
         <v>12340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -4490,13 +4526,13 @@
         <v>33502</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4505,10 +4541,10 @@
         <v>45842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>290</v>
@@ -4517,7 +4553,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>63</v>
@@ -4526,13 +4562,13 @@
         <v>66538</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -4541,13 +4577,13 @@
         <v>120329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="M24" s="7">
         <v>173</v>
@@ -4568,7 +4604,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>118</v>
@@ -4580,10 +4616,10 @@
         <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4592,10 +4628,10 @@
         <v>187457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>302</v>
@@ -4619,13 +4655,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2990</v>
       </c>
       <c r="D26" s="7">
-        <v>3188741</v>
+        <v>3188740</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>306</v>
@@ -4646,10 +4682,10 @@
         <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>5939</v>
@@ -4658,13 +4694,13 @@
         <v>6368079</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,16 +4712,16 @@
         <v>3200</v>
       </c>
       <c r="D27" s="7">
-        <v>3417584</v>
+        <v>3417583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3293</v>
@@ -4694,13 +4730,13 @@
         <v>3553238</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6493</v>
@@ -4709,18 +4745,18 @@
         <v>6970822</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4739,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2361C-7504-44B3-AAAD-53FE7C6B6942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84409D9-E4E8-4011-9CCE-51A5C49EB94A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4756,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4863,13 +4899,13 @@
         <v>5807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4878,13 +4914,13 @@
         <v>8029</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4896,10 +4932,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,10 +4953,10 @@
         <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4929,13 +4965,13 @@
         <v>7188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4944,19 +4980,19 @@
         <v>7188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -4965,10 +5001,10 @@
         <v>14784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>324</v>
@@ -4980,13 +5016,13 @@
         <v>19358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -4995,19 +5031,19 @@
         <v>34142</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>34</v>
@@ -5016,10 +5052,10 @@
         <v>35306</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>328</v>
@@ -5031,13 +5067,13 @@
         <v>33677</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5046,19 +5082,19 @@
         <v>68983</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>708</v>
@@ -5067,13 +5103,13 @@
         <v>697584</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>829</v>
@@ -5082,13 +5118,13 @@
         <v>926407</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -5097,7 +5133,7 @@
         <v>1623991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>340</v>
@@ -5118,13 +5154,13 @@
         <v>753480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5133,13 +5169,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1653</v>
@@ -5148,18 +5184,18 @@
         <v>1748140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5171,13 +5207,13 @@
         <v>16056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5186,13 +5222,13 @@
         <v>21144</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -5201,13 +5237,13 @@
         <v>37200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5258,13 @@
         <v>15835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5237,13 +5273,13 @@
         <v>17845</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5252,19 +5288,19 @@
         <v>33680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>41</v>
@@ -5273,13 +5309,13 @@
         <v>45070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>117</v>
+        <v>352</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -5288,13 +5324,13 @@
         <v>51798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -5303,19 +5339,19 @@
         <v>96868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>112</v>
@@ -5324,13 +5360,13 @@
         <v>120965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5339,13 +5375,13 @@
         <v>77028</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -5354,19 +5390,19 @@
         <v>197994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1767</v>
@@ -5375,13 +5411,13 @@
         <v>1874404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>1744</v>
@@ -5390,28 +5426,28 @@
         <v>1817373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>3511</v>
       </c>
       <c r="N14" s="7">
-        <v>3691777</v>
+        <v>3691776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5462,13 @@
         <v>2072331</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5441,33 +5477,33 @@
         <v>1985188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
       </c>
       <c r="N15" s="7">
-        <v>4057519</v>
+        <v>4057518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5479,13 +5515,13 @@
         <v>1301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5494,13 +5530,13 @@
         <v>4029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5509,13 +5545,13 @@
         <v>5331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5566,13 @@
         <v>5960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5545,13 +5581,13 @@
         <v>3733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5560,19 +5596,19 @@
         <v>9694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5581,13 +5617,13 @@
         <v>8907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5596,13 +5632,13 @@
         <v>9188</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5611,19 +5647,19 @@
         <v>18095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>16</v>
@@ -5632,13 +5668,13 @@
         <v>18838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5647,13 +5683,13 @@
         <v>30607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -5662,19 +5698,19 @@
         <v>49445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>469</v>
@@ -5683,13 +5719,13 @@
         <v>510711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>484</v>
@@ -5698,13 +5734,13 @@
         <v>501584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -5713,13 +5749,13 @@
         <v>1012294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5770,13 @@
         <v>545718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5749,13 +5785,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1026</v>
@@ -5764,13 +5800,13 @@
         <v>1094858</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5823,13 @@
         <v>23164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5802,13 +5838,13 @@
         <v>33202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5817,13 +5853,13 @@
         <v>56366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5874,13 @@
         <v>21796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -5853,13 +5889,13 @@
         <v>28766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5868,19 +5904,19 @@
         <v>50562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>63</v>
@@ -5889,13 +5925,13 @@
         <v>68762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5904,13 +5940,13 @@
         <v>80344</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>139</v>
@@ -5919,19 +5955,19 @@
         <v>149106</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>162</v>
@@ -5940,13 +5976,13 @@
         <v>175109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5955,13 +5991,13 @@
         <v>141312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>35</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -5970,19 +6006,19 @@
         <v>316422</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2944</v>
@@ -5991,13 +6027,13 @@
         <v>3082699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>3057</v>
@@ -6006,13 +6042,13 @@
         <v>3245363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>6001</v>
@@ -6021,13 +6057,13 @@
         <v>6328062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6078,13 @@
         <v>3371529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3323</v>
@@ -6057,13 +6093,13 @@
         <v>3528988</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
@@ -6072,18 +6108,18 @@
         <v>6900517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6102,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A3D7-2F47-4E8A-A204-851F4EB5E5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BA9C7D-305C-45DA-A641-A1681752B5E0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6119,7 +6155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6226,13 +6262,13 @@
         <v>7000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6241,13 +6277,13 @@
         <v>18625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -6256,13 +6292,13 @@
         <v>25625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6313,13 @@
         <v>8832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>416</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6292,13 +6328,13 @@
         <v>10920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6307,19 +6343,19 @@
         <v>19752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -6328,13 +6364,13 @@
         <v>12875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -6343,13 +6379,13 @@
         <v>32145</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>421</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6358,19 +6394,19 @@
         <v>45019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>152</v>
+        <v>431</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>44</v>
@@ -6379,13 +6415,13 @@
         <v>33551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>426</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -6394,13 +6430,13 @@
         <v>78536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -6409,19 +6445,19 @@
         <v>112087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>604</v>
@@ -6430,13 +6466,13 @@
         <v>479376</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>442</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>1196</v>
@@ -6445,13 +6481,13 @@
         <v>695727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M8" s="7">
         <v>1800</v>
@@ -6460,13 +6496,13 @@
         <v>1175102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6517,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6496,13 +6532,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6511,18 +6547,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6534,13 +6570,13 @@
         <v>19234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>442</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -6549,13 +6585,13 @@
         <v>23415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -6564,13 +6600,13 @@
         <v>42649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,10 +6624,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6600,13 +6636,13 @@
         <v>36673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -6618,16 +6654,16 @@
         <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>82</v>
@@ -6636,13 +6672,13 @@
         <v>90797</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -6651,13 +6687,13 @@
         <v>94969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
@@ -6666,19 +6702,19 @@
         <v>185766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>244</v>
@@ -6687,13 +6723,13 @@
         <v>240843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
@@ -6702,13 +6738,13 @@
         <v>254828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>624</v>
@@ -6717,19 +6753,19 @@
         <v>495671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1644</v>
@@ -6738,13 +6774,13 @@
         <v>1804523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>2357</v>
@@ -6753,13 +6789,13 @@
         <v>1837918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
         <v>4001</v>
@@ -6768,13 +6804,13 @@
         <v>3642442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6825,13 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>2919</v>
@@ -6804,13 +6840,13 @@
         <v>2247803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>4911</v>
@@ -6819,18 +6855,18 @@
         <v>4409825</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6842,13 +6878,13 @@
         <v>11877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6857,13 +6893,13 @@
         <v>12219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6872,13 +6908,13 @@
         <v>24096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6929,13 @@
         <v>6236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -6908,13 +6944,13 @@
         <v>12251</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6923,19 +6959,19 @@
         <v>18487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -6947,10 +6983,10 @@
         <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>473</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -6959,13 +6995,13 @@
         <v>39876</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -6974,19 +7010,19 @@
         <v>74269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>90</v>
@@ -6995,13 +7031,13 @@
         <v>94544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -7010,13 +7046,13 @@
         <v>87887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7025,19 +7061,19 @@
         <v>182432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>542</v>
@@ -7046,13 +7082,13 @@
         <v>525988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7061,13 +7097,13 @@
         <v>561653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>1324</v>
@@ -7076,13 +7112,13 @@
         <v>1087642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7133,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7112,13 +7148,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7127,13 +7163,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7186,13 @@
         <v>38110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7165,13 +7201,13 @@
         <v>54260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -7180,13 +7216,13 @@
         <v>92370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7237,13 @@
         <v>21693</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -7216,13 +7252,13 @@
         <v>59844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -7231,19 +7267,19 @@
         <v>81537</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>133</v>
@@ -7252,13 +7288,13 @@
         <v>138065</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>205</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
         <v>234</v>
@@ -7267,13 +7303,13 @@
         <v>166989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>367</v>
@@ -7282,19 +7318,19 @@
         <v>305054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>378</v>
@@ -7303,13 +7339,13 @@
         <v>368939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
@@ -7318,13 +7354,13 @@
         <v>421251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>1027</v>
@@ -7333,34 +7369,34 @@
         <v>790190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2790</v>
       </c>
       <c r="D26" s="7">
-        <v>2809888</v>
+        <v>2809887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>4335</v>
@@ -7369,13 +7405,13 @@
         <v>3095298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>7125</v>
@@ -7384,13 +7420,13 @@
         <v>5905186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,16 +7438,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>5350</v>
@@ -7420,13 +7456,13 @@
         <v>3797642</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>8714</v>
@@ -7435,18 +7471,18 @@
         <v>7174337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A81176-8016-48AA-8967-67917A2C0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61043EA4-1356-400A-952B-642CC3E3088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7827581-F442-4BE4-BBFC-DAB5B37CE55A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{120F9EB5-07EE-4E09-AF40-77F21886D6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="534">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1513 +80,1516 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
     <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
   </si>
   <si>
     <t>10,93%</t>
@@ -2049,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C212D1-1A91-405E-AC51-B732E45926B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02F794-BD0F-4E51-A3EF-881D83B611C6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2230,7 +2233,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2239,13 +2242,13 @@
         <v>13036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -2257,16 +2260,16 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>24</v>
@@ -2275,13 +2278,13 @@
         <v>22693</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -2290,13 +2293,13 @@
         <v>48201</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -2305,19 +2308,19 @@
         <v>70894</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>60</v>
@@ -2326,13 +2329,13 @@
         <v>56594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2341,13 +2344,13 @@
         <v>81820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -2356,19 +2359,19 @@
         <v>138415</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>945</v>
@@ -2377,13 +2380,13 @@
         <v>943681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>1134</v>
@@ -2392,13 +2395,13 @@
         <v>1156652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>2079</v>
@@ -2407,13 +2410,13 @@
         <v>2100333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2431,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2443,13 +2446,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2458,18 +2461,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2484,13 @@
         <v>13130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2496,13 +2499,13 @@
         <v>19311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2511,13 +2514,13 @@
         <v>32442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2538,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2547,13 +2550,13 @@
         <v>27836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -2562,19 +2565,19 @@
         <v>39950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>38</v>
@@ -2583,7 +2586,7 @@
         <v>43044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>73</v>
@@ -2598,13 +2601,13 @@
         <v>59582</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2613,19 +2616,19 @@
         <v>102626</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>97</v>
@@ -2634,13 +2637,13 @@
         <v>96231</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2649,13 +2652,13 @@
         <v>110266</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -2664,34 +2667,34 @@
         <v>206497</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1489</v>
       </c>
       <c r="D14" s="7">
-        <v>1528894</v>
+        <v>1528895</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>1341</v>
@@ -2700,13 +2703,13 @@
         <v>1369617</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>2830</v>
@@ -2715,13 +2718,13 @@
         <v>2898512</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,16 +2736,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2751,13 +2754,13 @@
         <v>1586613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -2766,18 +2769,18 @@
         <v>3280026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2792,13 @@
         <v>5778</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2804,13 +2807,13 @@
         <v>4063</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2819,13 +2822,13 @@
         <v>9840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2843,13 @@
         <v>3761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2855,13 +2858,13 @@
         <v>2007</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2870,10 +2873,10 @@
         <v>5768</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>116</v>
@@ -2882,7 +2885,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
@@ -2894,10 +2897,10 @@
         <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2906,13 +2909,13 @@
         <v>20112</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -2921,19 +2924,19 @@
         <v>35777</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -2942,13 +2945,13 @@
         <v>41687</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2957,13 +2960,13 @@
         <v>39907</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -2972,19 +2975,19 @@
         <v>81594</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>463</v>
@@ -2993,13 +2996,13 @@
         <v>484518</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>388</v>
@@ -3008,13 +3011,13 @@
         <v>410323</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -3023,13 +3026,13 @@
         <v>894841</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3047,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3059,13 +3062,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3074,13 +3077,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3100,13 @@
         <v>22056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3115,10 +3118,10 @@
         <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -3127,13 +3130,13 @@
         <v>60834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3151,13 @@
         <v>21481</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -3163,13 +3166,13 @@
         <v>42879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3178,34 +3181,34 @@
         <v>64360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>77</v>
       </c>
       <c r="D24" s="7">
-        <v>81401</v>
+        <v>81400</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -3214,13 +3217,13 @@
         <v>127895</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>205</v>
@@ -3229,19 +3232,19 @@
         <v>209296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>198</v>
@@ -3250,13 +3253,13 @@
         <v>194512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3265,13 +3268,13 @@
         <v>231994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -3280,34 +3283,34 @@
         <v>426506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2897</v>
       </c>
       <c r="D26" s="7">
-        <v>2957094</v>
+        <v>2957093</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>2863</v>
@@ -3316,13 +3319,13 @@
         <v>2936592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>5760</v>
@@ -3331,13 +3334,13 @@
         <v>5893685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,16 +3352,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3367,13 +3370,13 @@
         <v>3378138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3382,18 +3385,18 @@
         <v>6654681</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF8E96-97F5-4ED9-8AA2-12B0E35C793D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AAE61C-ADC6-41C2-AAB4-83D7F744902A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,13 +3539,13 @@
         <v>2904</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3551,13 +3554,13 @@
         <v>11352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3566,13 +3569,13 @@
         <v>14256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3602,13 +3605,13 @@
         <v>15207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3617,19 +3620,19 @@
         <v>22232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -3638,13 +3641,13 @@
         <v>22170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3653,13 +3656,13 @@
         <v>36549</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3668,19 +3671,19 @@
         <v>58719</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
@@ -3689,13 +3692,13 @@
         <v>28384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3704,13 +3707,13 @@
         <v>69307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -3719,19 +3722,19 @@
         <v>97692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>851</v>
@@ -3740,13 +3743,13 @@
         <v>912991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>1126</v>
@@ -3755,13 +3758,13 @@
         <v>1205381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>1977</v>
@@ -3770,13 +3773,13 @@
         <v>2118371</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3794,13 @@
         <v>973474</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -3806,13 +3809,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -3821,18 +3824,18 @@
         <v>2311270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3844,13 +3847,13 @@
         <v>13216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3859,13 +3862,13 @@
         <v>17298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3874,13 +3877,13 @@
         <v>30514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3898,13 @@
         <v>3289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3910,13 +3913,13 @@
         <v>10833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3925,19 +3928,19 @@
         <v>14122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>31</v>
@@ -3946,13 +3949,13 @@
         <v>33738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -3961,13 +3964,13 @@
         <v>64630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -3976,19 +3979,19 @@
         <v>98368</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>69</v>
@@ -3997,13 +4000,13 @@
         <v>71700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -4012,13 +4015,13 @@
         <v>84317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -4027,19 +4030,19 @@
         <v>156017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1741</v>
@@ -4048,28 +4051,28 @@
         <v>1842013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>1469</v>
       </c>
       <c r="I14" s="7">
-        <v>1579733</v>
+        <v>1579732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>3210</v>
@@ -4078,13 +4081,13 @@
         <v>3421746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,28 +4102,28 @@
         <v>1963957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
       </c>
       <c r="I15" s="7">
-        <v>1756811</v>
+        <v>1756810</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3490</v>
@@ -4129,18 +4132,18 @@
         <v>3720768</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4152,13 +4155,13 @@
         <v>4794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4167,13 +4170,13 @@
         <v>3963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4182,13 +4185,13 @@
         <v>8757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4206,13 @@
         <v>2026</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4218,13 +4221,13 @@
         <v>7461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4233,19 +4236,19 @@
         <v>9487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -4254,13 +4257,13 @@
         <v>10629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4269,13 +4272,13 @@
         <v>19150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -4287,16 +4290,16 @@
         <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>24</v>
@@ -4305,13 +4308,13 @@
         <v>28967</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4320,13 +4323,13 @@
         <v>33833</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4335,19 +4338,19 @@
         <v>62799</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>398</v>
@@ -4356,13 +4359,13 @@
         <v>433736</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -4371,13 +4374,13 @@
         <v>394224</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>752</v>
@@ -4386,13 +4389,13 @@
         <v>827960</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4410,13 @@
         <v>480152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4422,13 +4425,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4437,13 +4440,13 @@
         <v>938783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4463,13 @@
         <v>20914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4475,13 +4478,13 @@
         <v>32612</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4490,13 +4493,13 @@
         <v>53527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4514,13 @@
         <v>12340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -4526,13 +4529,13 @@
         <v>33502</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4541,19 +4544,19 @@
         <v>45842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>63</v>
@@ -4562,13 +4565,13 @@
         <v>66538</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -4577,13 +4580,13 @@
         <v>120329</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M24" s="7">
         <v>173</v>
@@ -4598,13 +4601,13 @@
         <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>118</v>
@@ -4613,13 +4616,13 @@
         <v>129051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4628,13 +4631,13 @@
         <v>187457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -4643,19 +4646,19 @@
         <v>316508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2990</v>
@@ -4664,13 +4667,13 @@
         <v>3188740</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>2949</v>
@@ -4679,13 +4682,13 @@
         <v>3179338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>5939</v>
@@ -4694,13 +4697,13 @@
         <v>6368079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4718,13 @@
         <v>3417583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3293</v>
@@ -4730,13 +4733,13 @@
         <v>3553238</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6493</v>
@@ -4745,18 +4748,18 @@
         <v>6970822</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +4778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84409D9-E4E8-4011-9CCE-51A5C49EB94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBE897A-5438-4663-9F7F-099500ACC11F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4792,7 +4795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4899,10 +4902,10 @@
         <v>5807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>73</v>
@@ -4914,13 +4917,13 @@
         <v>8029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4932,10 +4935,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4968,10 +4971,10 @@
         <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4980,19 +4983,19 @@
         <v>7188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -5001,13 +5004,13 @@
         <v>14784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5016,13 +5019,13 @@
         <v>19358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -5031,19 +5034,19 @@
         <v>34142</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>34</v>
@@ -5052,13 +5055,13 @@
         <v>35306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5067,13 +5070,13 @@
         <v>33677</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5082,19 +5085,19 @@
         <v>68983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>708</v>
@@ -5103,13 +5106,13 @@
         <v>697584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>829</v>
@@ -5118,13 +5121,13 @@
         <v>926407</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -5133,13 +5136,13 @@
         <v>1623991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5157,13 @@
         <v>753480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5169,13 +5172,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1653</v>
@@ -5184,18 +5187,18 @@
         <v>1748140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5207,13 +5210,13 @@
         <v>16056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5222,13 +5225,13 @@
         <v>21144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -5237,13 +5240,13 @@
         <v>37200</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5261,13 @@
         <v>15835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5273,13 +5276,13 @@
         <v>17845</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5288,19 +5291,19 @@
         <v>33680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>41</v>
@@ -5309,13 +5312,13 @@
         <v>45070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -5324,13 +5327,13 @@
         <v>51798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -5339,19 +5342,19 @@
         <v>96868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>112</v>
@@ -5360,13 +5363,13 @@
         <v>120965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5375,13 +5378,13 @@
         <v>77028</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -5390,19 +5393,19 @@
         <v>197994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1767</v>
@@ -5411,13 +5414,13 @@
         <v>1874404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>1744</v>
@@ -5426,13 +5429,13 @@
         <v>1817373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>3511</v>
@@ -5441,13 +5444,13 @@
         <v>3691776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5465,13 @@
         <v>2072331</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5477,13 +5480,13 @@
         <v>1985188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5492,18 +5495,18 @@
         <v>4057518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5515,13 +5518,13 @@
         <v>1301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5530,13 +5533,13 @@
         <v>4029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5545,13 +5548,13 @@
         <v>5331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5569,13 @@
         <v>5960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5581,13 +5584,13 @@
         <v>3733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5596,19 +5599,19 @@
         <v>9694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5617,13 +5620,13 @@
         <v>8907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5632,13 +5635,13 @@
         <v>9188</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5647,19 +5650,19 @@
         <v>18095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>16</v>
@@ -5668,13 +5671,13 @@
         <v>18838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5683,13 +5686,13 @@
         <v>30607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -5698,19 +5701,19 @@
         <v>49445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>469</v>
@@ -5719,13 +5722,13 @@
         <v>510711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>484</v>
@@ -5734,13 +5737,13 @@
         <v>501584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -5749,13 +5752,13 @@
         <v>1012294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5773,13 @@
         <v>545718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5785,13 +5788,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1026</v>
@@ -5800,13 +5803,13 @@
         <v>1094858</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5826,13 @@
         <v>23164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5838,13 +5841,13 @@
         <v>33202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5853,13 +5856,13 @@
         <v>56366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5877,13 @@
         <v>21796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -5889,13 +5892,13 @@
         <v>28766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5904,19 +5907,19 @@
         <v>50562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>63</v>
@@ -5925,13 +5928,13 @@
         <v>68762</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5940,13 +5943,13 @@
         <v>80344</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>139</v>
@@ -5955,19 +5958,19 @@
         <v>149106</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>162</v>
@@ -5976,13 +5979,13 @@
         <v>175109</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5991,13 +5994,13 @@
         <v>141312</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -6006,19 +6009,19 @@
         <v>316422</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2944</v>
@@ -6027,13 +6030,13 @@
         <v>3082699</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>3057</v>
@@ -6042,13 +6045,13 @@
         <v>3245363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>6001</v>
@@ -6063,7 +6066,7 @@
         <v>418</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6081,13 @@
         <v>3371529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3323</v>
@@ -6093,13 +6096,13 @@
         <v>3528988</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
@@ -6108,18 +6111,18 @@
         <v>6900517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6138,7 +6141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BA9C7D-305C-45DA-A641-A1681752B5E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CF44D5-5FBD-4C79-BDBC-9FD214619C0D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6155,7 +6158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6262,13 +6265,13 @@
         <v>7000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6277,10 +6280,10 @@
         <v>18625</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>423</v>
@@ -6292,13 +6295,13 @@
         <v>25625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>65</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6316,13 @@
         <v>8832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6328,13 +6331,13 @@
         <v>10920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6343,19 +6346,19 @@
         <v>19752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -6364,13 +6367,13 @@
         <v>12875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -6379,13 +6382,13 @@
         <v>32145</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6394,19 +6397,19 @@
         <v>45019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>44</v>
@@ -6415,13 +6418,13 @@
         <v>33551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -6430,13 +6433,13 @@
         <v>78536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -6445,19 +6448,19 @@
         <v>112087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>604</v>
@@ -6466,13 +6469,13 @@
         <v>479376</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
         <v>1196</v>
@@ -6481,13 +6484,13 @@
         <v>695727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
         <v>1800</v>
@@ -6496,13 +6499,13 @@
         <v>1175102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6520,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6532,13 +6535,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6547,18 +6550,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6570,13 +6573,13 @@
         <v>19234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -6585,13 +6588,13 @@
         <v>23415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -6600,13 +6603,13 @@
         <v>42649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6630,7 @@
         <v>452</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6636,13 +6639,13 @@
         <v>36673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -6651,19 +6654,19 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>82</v>
@@ -6672,10 +6675,10 @@
         <v>90797</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>456</v>
@@ -6687,13 +6690,13 @@
         <v>94969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
@@ -6702,19 +6705,19 @@
         <v>185766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>244</v>
@@ -6723,13 +6726,13 @@
         <v>240843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
@@ -6738,13 +6741,13 @@
         <v>254828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>624</v>
@@ -6753,19 +6756,19 @@
         <v>495671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1644</v>
@@ -6774,13 +6777,13 @@
         <v>1804523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7">
         <v>2357</v>
@@ -6789,13 +6792,13 @@
         <v>1837918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
         <v>4001</v>
@@ -6804,13 +6807,13 @@
         <v>3642442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6828,13 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>2919</v>
@@ -6840,13 +6843,13 @@
         <v>2247803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>4911</v>
@@ -6855,18 +6858,18 @@
         <v>4409825</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6878,13 +6881,13 @@
         <v>11877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6893,13 +6896,13 @@
         <v>12219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6908,10 +6911,10 @@
         <v>24096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>480</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>481</v>
@@ -6929,10 +6932,10 @@
         <v>6236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>482</v>
@@ -6944,13 +6947,13 @@
         <v>12251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6959,10 +6962,10 @@
         <v>18487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>484</v>
@@ -6971,7 +6974,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -6980,10 +6983,10 @@
         <v>34394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>485</v>
@@ -6995,13 +6998,13 @@
         <v>39876</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -7010,19 +7013,19 @@
         <v>74269</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>90</v>
@@ -7031,13 +7034,13 @@
         <v>94544</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -7046,13 +7049,13 @@
         <v>87887</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7061,19 +7064,19 @@
         <v>182432</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>542</v>
@@ -7082,13 +7085,13 @@
         <v>525988</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7097,13 +7100,13 @@
         <v>561653</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>1324</v>
@@ -7112,13 +7115,13 @@
         <v>1087642</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7136,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7148,13 +7151,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7163,13 +7166,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,10 +7192,10 @@
         <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7201,13 +7204,13 @@
         <v>54260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -7216,13 +7219,13 @@
         <v>92370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7240,13 @@
         <v>21693</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -7252,10 +7255,10 @@
         <v>59844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>509</v>
@@ -7267,19 +7270,19 @@
         <v>81537</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>133</v>
@@ -7291,7 +7294,7 @@
         <v>511</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>512</v>
@@ -7306,10 +7309,10 @@
         <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>367</v>
@@ -7318,19 +7321,19 @@
         <v>305054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>378</v>
@@ -7339,13 +7342,13 @@
         <v>368939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
@@ -7354,13 +7357,13 @@
         <v>421251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>1027</v>
@@ -7369,19 +7372,19 @@
         <v>790190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2790</v>
@@ -7390,13 +7393,13 @@
         <v>2809887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H26" s="7">
         <v>4335</v>
@@ -7405,13 +7408,13 @@
         <v>3095298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>7125</v>
@@ -7420,13 +7423,13 @@
         <v>5905186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,13 +7444,13 @@
         <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>5350</v>
@@ -7456,13 +7459,13 @@
         <v>3797642</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>8714</v>
@@ -7471,18 +7474,18 @@
         <v>7174337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61043EA4-1356-400A-952B-642CC3E3088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11007361-B6A3-4DC4-87A3-2FC7388F8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{120F9EB5-07EE-4E09-AF40-77F21886D6A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B1EE2A-9A2E-46B4-A4C9-9FACF95566CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="521">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1567 +80,1528 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>79,78%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02F794-BD0F-4E51-A3EF-881D83B611C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862E9CF9-E62C-47F1-A2CF-D018FB1E3A3F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2362,16 +2323,16 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>945</v>
@@ -2380,13 +2341,13 @@
         <v>943681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>1134</v>
@@ -2395,13 +2356,13 @@
         <v>1156652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>2079</v>
@@ -2410,13 +2371,13 @@
         <v>2100333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2392,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2446,13 +2407,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2461,18 +2422,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2484,13 +2445,13 @@
         <v>13130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2502,10 +2463,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2517,10 +2478,10 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2496,13 @@
         <v>12114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2550,13 +2511,13 @@
         <v>27836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -2568,10 +2529,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2547,13 @@
         <v>43044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>60</v>
@@ -2604,10 +2565,10 @@
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2616,13 +2577,13 @@
         <v>102626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2598,13 @@
         <v>96231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -2652,13 +2613,13 @@
         <v>110266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -2667,34 +2628,34 @@
         <v>206497</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1489</v>
       </c>
       <c r="D14" s="7">
-        <v>1528895</v>
+        <v>1528894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>1341</v>
@@ -2703,13 +2664,13 @@
         <v>1369617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>2830</v>
@@ -2718,13 +2679,13 @@
         <v>2898512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,16 +2697,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2754,13 +2715,13 @@
         <v>1586613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -2769,18 +2730,18 @@
         <v>3280026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2792,13 +2753,13 @@
         <v>5778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2807,13 +2768,13 @@
         <v>4063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2822,13 +2783,13 @@
         <v>9840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2804,13 @@
         <v>3761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2858,13 +2819,13 @@
         <v>2007</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2879,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,10 +2855,10 @@
         <v>15664</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>118</v>
@@ -2927,10 +2888,10 @@
         <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2906,13 @@
         <v>41687</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2960,13 +2921,13 @@
         <v>39907</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -2975,19 +2936,19 @@
         <v>81594</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>463</v>
@@ -2996,13 +2957,13 @@
         <v>484518</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>388</v>
@@ -3011,13 +2972,13 @@
         <v>410323</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -3026,13 +2987,13 @@
         <v>894841</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3008,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3062,13 +3023,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3077,13 +3038,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3061,13 @@
         <v>22056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3115,13 +3076,13 @@
         <v>38778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -3130,13 +3091,13 @@
         <v>60834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3112,13 @@
         <v>21481</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -3166,13 +3127,13 @@
         <v>42879</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3181,13 +3142,13 @@
         <v>64360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,16 +3160,16 @@
         <v>77</v>
       </c>
       <c r="D24" s="7">
-        <v>81400</v>
+        <v>81401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -3217,13 +3178,13 @@
         <v>127895</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>205</v>
@@ -3232,13 +3193,13 @@
         <v>209296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3214,13 @@
         <v>194512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -3268,13 +3229,13 @@
         <v>231994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -3283,34 +3244,34 @@
         <v>426506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2897</v>
       </c>
       <c r="D26" s="7">
-        <v>2957093</v>
+        <v>2957094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>2863</v>
@@ -3319,13 +3280,13 @@
         <v>2936592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>5760</v>
@@ -3334,13 +3295,13 @@
         <v>5893685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,16 +3313,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3370,13 +3331,13 @@
         <v>3378138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3385,18 +3346,18 @@
         <v>6654681</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AAE61C-ADC6-41C2-AAB4-83D7F744902A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190710D-96E1-4825-A572-49F8A09B2F36}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3432,7 +3393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,13 +3500,13 @@
         <v>2904</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3554,13 +3515,13 @@
         <v>11352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3569,13 +3530,13 @@
         <v>14256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3551,13 @@
         <v>7025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3605,13 +3566,13 @@
         <v>15207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3620,13 +3581,13 @@
         <v>22232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3602,13 @@
         <v>22170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3656,13 +3617,13 @@
         <v>36549</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3671,13 +3632,13 @@
         <v>58719</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3653,13 @@
         <v>28384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3707,13 +3668,13 @@
         <v>69307</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -3722,19 +3683,19 @@
         <v>97692</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>851</v>
@@ -3743,13 +3704,13 @@
         <v>912991</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>1126</v>
@@ -3758,13 +3719,13 @@
         <v>1205381</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>1977</v>
@@ -3773,13 +3734,13 @@
         <v>2118371</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3755,13 @@
         <v>973474</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -3809,13 +3770,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -3824,18 +3785,18 @@
         <v>2311270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3847,13 +3808,13 @@
         <v>13216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3862,13 +3823,13 @@
         <v>17298</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3877,13 +3838,13 @@
         <v>30514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3859,13 @@
         <v>3289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3913,7 +3874,7 @@
         <v>10833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>225</v>
@@ -3931,10 +3892,10 @@
         <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3910,13 @@
         <v>33738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -3964,13 +3925,13 @@
         <v>64630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -3979,13 +3940,13 @@
         <v>98368</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3961,13 @@
         <v>71700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -4015,13 +3976,13 @@
         <v>84317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -4030,19 +3991,19 @@
         <v>156017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1741</v>
@@ -4051,28 +4012,28 @@
         <v>1842013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>1469</v>
       </c>
       <c r="I14" s="7">
-        <v>1579732</v>
+        <v>1579733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>3210</v>
@@ -4081,13 +4042,13 @@
         <v>3421746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,28 +4063,28 @@
         <v>1963957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
       </c>
       <c r="I15" s="7">
-        <v>1756810</v>
+        <v>1756811</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3490</v>
@@ -4132,18 +4093,18 @@
         <v>3720768</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4155,13 +4116,13 @@
         <v>4794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4170,13 +4131,13 @@
         <v>3963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4185,13 +4146,13 @@
         <v>8757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4167,13 @@
         <v>2026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4221,13 +4182,13 @@
         <v>7461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4236,13 +4197,13 @@
         <v>9487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4218,13 @@
         <v>10629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4272,13 +4233,13 @@
         <v>19150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -4287,13 +4248,13 @@
         <v>29780</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4269,13 @@
         <v>28967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4323,13 +4284,13 @@
         <v>33833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4338,19 +4299,19 @@
         <v>62799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>398</v>
@@ -4359,13 +4320,13 @@
         <v>433736</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -4374,13 +4335,13 @@
         <v>394224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>752</v>
@@ -4389,13 +4350,13 @@
         <v>827960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4371,13 @@
         <v>480152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4425,13 +4386,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4440,13 +4401,13 @@
         <v>938783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4424,13 @@
         <v>20914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4478,13 +4439,13 @@
         <v>32612</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -4493,13 +4454,13 @@
         <v>53527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4475,13 @@
         <v>12340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -4529,13 +4490,13 @@
         <v>33502</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4544,13 +4505,13 @@
         <v>45842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4526,13 @@
         <v>66538</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -4601,7 +4562,7 @@
         <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4577,13 @@
         <v>129051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4631,13 +4592,13 @@
         <v>187457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -4646,34 +4607,34 @@
         <v>316508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2990</v>
       </c>
       <c r="D26" s="7">
-        <v>3188740</v>
+        <v>3188741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>2949</v>
@@ -4682,13 +4643,13 @@
         <v>3179338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>5939</v>
@@ -4697,13 +4658,13 @@
         <v>6368079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,16 +4676,16 @@
         <v>3200</v>
       </c>
       <c r="D27" s="7">
-        <v>3417583</v>
+        <v>3417584</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3293</v>
@@ -4733,13 +4694,13 @@
         <v>3553238</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6493</v>
@@ -4748,18 +4709,18 @@
         <v>6970822</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBE897A-5438-4663-9F7F-099500ACC11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14DA068-4971-4CA9-BF58-828DAB046D1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4795,7 +4756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4902,13 +4863,13 @@
         <v>5807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4917,13 +4878,13 @@
         <v>8029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4935,10 +4896,10 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4968,13 +4929,13 @@
         <v>7188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4983,13 +4944,13 @@
         <v>7188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4965,13 @@
         <v>14784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5019,13 +4980,13 @@
         <v>19358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -5034,13 +4995,13 @@
         <v>34142</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5016,13 @@
         <v>35306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5073,10 +5034,10 @@
         <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5085,19 +5046,19 @@
         <v>68983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>708</v>
@@ -5106,13 +5067,13 @@
         <v>697584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>829</v>
@@ -5121,13 +5082,13 @@
         <v>926407</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -5136,13 +5097,13 @@
         <v>1623991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5118,13 @@
         <v>753480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5172,13 +5133,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1653</v>
@@ -5187,18 +5148,18 @@
         <v>1748140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5210,13 +5171,13 @@
         <v>16056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5225,13 +5186,13 @@
         <v>21144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -5240,13 +5201,13 @@
         <v>37200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5222,13 @@
         <v>15835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5276,13 +5237,13 @@
         <v>17845</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5291,13 +5252,13 @@
         <v>33680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5273,13 @@
         <v>45070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>117</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>49</v>
@@ -5327,13 +5288,13 @@
         <v>51798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -5342,13 +5303,13 @@
         <v>96868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,10 +5324,10 @@
         <v>120965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>354</v>
@@ -5396,16 +5357,16 @@
         <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1767</v>
@@ -5414,13 +5375,13 @@
         <v>1874404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>1744</v>
@@ -5429,28 +5390,28 @@
         <v>1817373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>3511</v>
       </c>
       <c r="N14" s="7">
-        <v>3691776</v>
+        <v>3691777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5426,13 @@
         <v>2072331</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5480,33 +5441,33 @@
         <v>1985188</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
       </c>
       <c r="N15" s="7">
-        <v>4057518</v>
+        <v>4057519</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5518,13 +5479,13 @@
         <v>1301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5533,13 +5494,13 @@
         <v>4029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5548,13 +5509,13 @@
         <v>5331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5530,13 @@
         <v>5960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5584,13 +5545,13 @@
         <v>3733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5599,13 +5560,13 @@
         <v>9694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5581,13 @@
         <v>8907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5635,13 +5596,13 @@
         <v>9188</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5650,13 +5611,13 @@
         <v>18095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5632,13 @@
         <v>18838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5686,13 +5647,13 @@
         <v>30607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -5701,10 +5662,10 @@
         <v>49445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>386</v>
@@ -5713,7 +5674,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>469</v>
@@ -5743,7 +5704,7 @@
         <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -5752,13 +5713,13 @@
         <v>1012294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5734,13 @@
         <v>545718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5788,13 +5749,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1026</v>
@@ -5803,13 +5764,13 @@
         <v>1094858</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5787,13 @@
         <v>23164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5841,13 +5802,13 @@
         <v>33202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5856,13 +5817,13 @@
         <v>56366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5838,13 @@
         <v>21796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -5892,13 +5853,13 @@
         <v>28766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5907,13 +5868,13 @@
         <v>50562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5889,13 @@
         <v>68762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -5943,13 +5904,13 @@
         <v>80344</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>139</v>
@@ -5958,13 +5919,13 @@
         <v>149106</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>404</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5940,13 @@
         <v>175109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -5994,13 +5955,13 @@
         <v>141312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="M25" s="7">
         <v>294</v>
@@ -6009,19 +5970,19 @@
         <v>316422</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2944</v>
@@ -6030,13 +5991,13 @@
         <v>3082699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>3057</v>
@@ -6045,13 +6006,13 @@
         <v>3245363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>6001</v>
@@ -6060,13 +6021,13 @@
         <v>6328062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6042,13 @@
         <v>3371529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3323</v>
@@ -6096,13 +6057,13 @@
         <v>3528988</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
@@ -6111,18 +6072,18 @@
         <v>6900517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6141,7 +6102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CF44D5-5FBD-4C79-BDBC-9FD214619C0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88435D6C-07BD-425D-9DF1-A3FD2D2F68DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6158,7 +6119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6265,13 +6226,13 @@
         <v>7000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6280,13 +6241,13 @@
         <v>18625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>422</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -6295,13 +6256,13 @@
         <v>25625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>424</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6277,13 @@
         <v>8832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6331,13 +6292,13 @@
         <v>10920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6346,13 +6307,13 @@
         <v>19752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,10 +6331,10 @@
         <v>420</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>428</v>
+        <v>185</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -6382,13 +6343,13 @@
         <v>32145</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>430</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6397,13 +6358,13 @@
         <v>45019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6379,13 @@
         <v>33551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -6433,13 +6394,13 @@
         <v>78536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -6448,19 +6409,19 @@
         <v>112087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>604</v>
@@ -6469,13 +6430,13 @@
         <v>479376</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>443</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>444</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>1196</v>
@@ -6484,13 +6445,13 @@
         <v>695727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M8" s="7">
         <v>1800</v>
@@ -6499,13 +6460,13 @@
         <v>1175102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6481,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6535,13 +6496,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6550,18 +6511,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6573,13 +6534,13 @@
         <v>19234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>442</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -6588,13 +6549,13 @@
         <v>23415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -6603,13 +6564,13 @@
         <v>42649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,10 +6588,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6639,13 +6600,13 @@
         <v>36673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -6654,13 +6615,13 @@
         <v>43298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>453</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6636,13 @@
         <v>90797</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -6693,10 +6654,10 @@
         <v>119</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
@@ -6705,13 +6666,13 @@
         <v>185766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>459</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6687,13 @@
         <v>240843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
@@ -6741,13 +6702,13 @@
         <v>254828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>624</v>
@@ -6756,19 +6717,19 @@
         <v>495671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1644</v>
@@ -6777,13 +6738,13 @@
         <v>1804523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>2357</v>
@@ -6792,13 +6753,13 @@
         <v>1837918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>4001</v>
@@ -6807,13 +6768,13 @@
         <v>3642442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6789,13 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2919</v>
@@ -6843,13 +6804,13 @@
         <v>2247803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4911</v>
@@ -6858,18 +6819,18 @@
         <v>4409825</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6881,13 +6842,13 @@
         <v>11877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6896,13 +6857,13 @@
         <v>12219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6911,13 +6872,13 @@
         <v>24096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6893,13 @@
         <v>6236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -6947,13 +6908,13 @@
         <v>12251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>483</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6962,13 +6923,13 @@
         <v>18487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6944,13 @@
         <v>34394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -6998,13 +6959,13 @@
         <v>39876</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>475</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -7013,13 +6974,13 @@
         <v>74269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +6995,13 @@
         <v>94544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -7049,13 +7010,13 @@
         <v>87887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7064,19 +7025,19 @@
         <v>182432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>542</v>
@@ -7085,13 +7046,13 @@
         <v>525988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7100,13 +7061,13 @@
         <v>561653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M20" s="7">
         <v>1324</v>
@@ -7115,13 +7076,13 @@
         <v>1087642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7097,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7151,13 +7112,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7166,13 +7127,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7150,13 @@
         <v>38110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7204,13 +7165,13 @@
         <v>54260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -7219,13 +7180,13 @@
         <v>92370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7201,13 @@
         <v>21693</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -7255,13 +7216,13 @@
         <v>59844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -7270,13 +7231,13 @@
         <v>81537</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7252,13 @@
         <v>138065</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>497</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>234</v>
@@ -7306,13 +7267,13 @@
         <v>166989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>514</v>
+        <v>38</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>515</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>367</v>
@@ -7321,13 +7282,13 @@
         <v>305054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7303,13 @@
         <v>368939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
@@ -7357,13 +7318,13 @@
         <v>421251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>1027</v>
@@ -7372,34 +7333,34 @@
         <v>790190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2790</v>
       </c>
       <c r="D26" s="7">
-        <v>2809887</v>
+        <v>2809888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>4335</v>
@@ -7408,13 +7369,13 @@
         <v>3095298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>7125</v>
@@ -7423,13 +7384,13 @@
         <v>5905186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,16 +7402,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5350</v>
@@ -7459,13 +7420,13 @@
         <v>3797642</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8714</v>
@@ -7474,18 +7435,18 @@
         <v>7174337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11007361-B6A3-4DC4-87A3-2FC7388F8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0C15D5-E7FC-4BF3-82EE-6AA613273059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B1EE2A-9A2E-46B4-A4C9-9FACF95566CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA44AFCC-BC52-4F96-AFEC-3000AD76C3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="532">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -1283,325 +1283,358 @@
     <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>2,1%</t>
   </si>
   <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862E9CF9-E62C-47F1-A2CF-D018FB1E3A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7D12B7-F025-429B-B80D-102C6A113831}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2368,7 +2401,7 @@
         <v>2079</v>
       </c>
       <c r="N8" s="7">
-        <v>2100333</v>
+        <v>2100332</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -2419,7 +2452,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -2646,7 +2679,7 @@
         <v>1489</v>
       </c>
       <c r="D14" s="7">
-        <v>1528894</v>
+        <v>1528895</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>92</v>
@@ -2697,7 +2730,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3160,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="7">
-        <v>81401</v>
+        <v>81400</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -3262,7 +3295,7 @@
         <v>2897</v>
       </c>
       <c r="D26" s="7">
-        <v>2957094</v>
+        <v>2957093</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>169</v>
@@ -3277,7 +3310,7 @@
         <v>2863</v>
       </c>
       <c r="I26" s="7">
-        <v>2936592</v>
+        <v>2936591</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>172</v>
@@ -3313,7 +3346,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3328,7 +3361,7 @@
         <v>3296</v>
       </c>
       <c r="I27" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3376,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190710D-96E1-4825-A572-49F8A09B2F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129BBF02-55BD-4070-83B8-E98BB376DE5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3716,7 +3749,7 @@
         <v>1126</v>
       </c>
       <c r="I8" s="7">
-        <v>1205381</v>
+        <v>1205382</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>210</v>
@@ -3731,7 +3764,7 @@
         <v>1977</v>
       </c>
       <c r="N8" s="7">
-        <v>2118371</v>
+        <v>2118372</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>213</v>
@@ -3767,7 +3800,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -3782,7 +3815,7 @@
         <v>2154</v>
       </c>
       <c r="N9" s="7">
-        <v>2311270</v>
+        <v>2311271</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -4625,7 +4658,7 @@
         <v>2990</v>
       </c>
       <c r="D26" s="7">
-        <v>3188741</v>
+        <v>3188740</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>306</v>
@@ -4676,7 +4709,7 @@
         <v>3200</v>
       </c>
       <c r="D27" s="7">
-        <v>3417584</v>
+        <v>3417583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -4739,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14DA068-4971-4CA9-BF58-828DAB046D1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0764275-3843-40CC-9133-A5422B648BDB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6102,7 +6135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88435D6C-07BD-425D-9DF1-A3FD2D2F68DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563F09C5-4742-4E20-862B-787A29C877F9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6223,28 +6256,28 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>7000</v>
+        <v>6498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>18625</v>
+        <v>16075</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>414</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>415</v>
@@ -6253,16 +6286,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>25625</v>
+        <v>22573</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,46 +6307,46 @@
         <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>8832</v>
+        <v>8426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>10920</v>
+        <v>9860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>19752</v>
+        <v>18286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6358,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>12875</v>
+        <v>12237</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>82</v>
@@ -6340,31 +6373,31 @@
         <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>32145</v>
+        <v>29348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>421</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>45019</v>
+        <v>41585</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,46 +6409,46 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>33551</v>
+        <v>30791</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>78536</v>
+        <v>70491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
       </c>
       <c r="N7" s="7">
-        <v>112087</v>
+        <v>101282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,46 +6460,46 @@
         <v>604</v>
       </c>
       <c r="D8" s="7">
-        <v>479376</v>
+        <v>456986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>436</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>1196</v>
       </c>
       <c r="I8" s="7">
-        <v>695727</v>
+        <v>629734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>1800</v>
       </c>
       <c r="N8" s="7">
-        <v>1175102</v>
+        <v>1086720</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6511,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -6493,7 +6526,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -6508,7 +6541,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -6531,46 +6564,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>19234</v>
+        <v>21472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>23415</v>
+        <v>21596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>42649</v>
+        <v>43068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>397</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,46 +6615,46 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>6625</v>
+        <v>6249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>36673</v>
+        <v>89824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>43298</v>
+        <v>96073</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,46 +6666,46 @@
         <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>90797</v>
+        <v>88958</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>94969</v>
+        <v>87789</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>119</v>
+        <v>451</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
       </c>
       <c r="N12" s="7">
-        <v>185766</v>
+        <v>176747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,46 +6717,46 @@
         <v>244</v>
       </c>
       <c r="D13" s="7">
-        <v>240843</v>
+        <v>230988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
       </c>
       <c r="I13" s="7">
-        <v>254828</v>
+        <v>234505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
         <v>624</v>
       </c>
       <c r="N13" s="7">
-        <v>495671</v>
+        <v>465493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,46 +6768,46 @@
         <v>1644</v>
       </c>
       <c r="D14" s="7">
-        <v>1804523</v>
+        <v>1942660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H14" s="7">
         <v>2357</v>
       </c>
       <c r="I14" s="7">
-        <v>1837918</v>
+        <v>1802570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>4001</v>
       </c>
       <c r="N14" s="7">
-        <v>3642442</v>
+        <v>3745230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6819,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -6801,7 +6834,7 @@
         <v>2919</v>
       </c>
       <c r="I15" s="7">
-        <v>2247803</v>
+        <v>2236284</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -6816,7 +6849,7 @@
         <v>4911</v>
       </c>
       <c r="N15" s="7">
-        <v>4409825</v>
+        <v>4526611</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -6839,46 +6872,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>11877</v>
+        <v>12134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>12219</v>
+        <v>11446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>24096</v>
+        <v>23580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>23</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,22 +6923,22 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>6236</v>
+        <v>6263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>12251</v>
+        <v>11359</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>230</v>
@@ -6914,22 +6947,22 @@
         <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>18487</v>
+        <v>17622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,46 +6974,46 @@
         <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>34394</v>
+        <v>33359</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>479</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>39876</v>
+        <v>37064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>74269</v>
+        <v>70424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>485</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,46 +7025,46 @@
         <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>94544</v>
+        <v>92233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>87887</v>
+        <v>81112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>182432</v>
+        <v>173345</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,46 +7076,46 @@
         <v>542</v>
       </c>
       <c r="D20" s="7">
-        <v>525988</v>
+        <v>502633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
       </c>
       <c r="I20" s="7">
-        <v>561653</v>
+        <v>519482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
         <v>1324</v>
       </c>
       <c r="N20" s="7">
-        <v>1087642</v>
+        <v>1022115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,7 +7127,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7109,7 +7142,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7124,7 +7157,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7147,46 +7180,46 @@
         <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>38110</v>
+        <v>40105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>54260</v>
+        <v>49117</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
       </c>
       <c r="N22" s="7">
-        <v>92370</v>
+        <v>89221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,46 +7231,46 @@
         <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>21693</v>
+        <v>20938</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>396</v>
+        <v>227</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
       </c>
       <c r="I23" s="7">
-        <v>59844</v>
+        <v>111043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
       </c>
       <c r="N23" s="7">
-        <v>81537</v>
+        <v>131982</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,46 +7282,46 @@
         <v>133</v>
       </c>
       <c r="D24" s="7">
-        <v>138065</v>
+        <v>134555</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="H24" s="7">
         <v>234</v>
       </c>
       <c r="I24" s="7">
-        <v>166989</v>
+        <v>154201</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>38</v>
+        <v>513</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="M24" s="7">
         <v>367</v>
       </c>
       <c r="N24" s="7">
-        <v>305054</v>
+        <v>288756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,46 +7333,46 @@
         <v>378</v>
       </c>
       <c r="D25" s="7">
-        <v>368939</v>
+        <v>354012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>649</v>
       </c>
       <c r="I25" s="7">
-        <v>421251</v>
+        <v>386107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>1027</v>
       </c>
       <c r="N25" s="7">
-        <v>790190</v>
+        <v>740119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,46 +7384,46 @@
         <v>2790</v>
       </c>
       <c r="D26" s="7">
-        <v>2809888</v>
+        <v>2902280</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>4335</v>
       </c>
       <c r="I26" s="7">
-        <v>3095298</v>
+        <v>2951786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>7125</v>
       </c>
       <c r="N26" s="7">
-        <v>5905186</v>
+        <v>5854066</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,7 +7435,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7417,7 +7450,7 @@
         <v>5350</v>
       </c>
       <c r="I27" s="7">
-        <v>3797642</v>
+        <v>3652255</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7432,7 +7465,7 @@
         <v>8714</v>
       </c>
       <c r="N27" s="7">
-        <v>7174337</v>
+        <v>7104144</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
